--- a/Test Cases/Iteration 8/Iteration 8 Test Cases Result.xlsx
+++ b/Test Cases/Iteration 8/Iteration 8 Test Cases Result.xlsx
@@ -1152,52 +1152,6 @@
 Click 'Generate Results' </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Rank, Specialty, Number of Engagement
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1, Surgery - Orthopaedics, 4
-2, Medicine - Gastroenterology, 3
-2, Surgery - ENT, 3
-4, Medicine - Endocrinology, 2
-4, Medicine - Oncology, 2
-4, Obs &amp; Gynae, 2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-4, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Surgery - General, 2
-8, Medicine - Cardiology, 1
-8, Medicine - Renal, 1
-8, Surgery - Neuro, 1</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Ranking - Speciality (View Doctor List) </t>
   </si>
   <si>
@@ -1291,101 +1245,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">1. Melivon, 7
-2, Mostfizur, 4
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Rank 3: 3 Cases</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Andreas
-Ninik
-SMG 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Rank 6: 2 Cases</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-AAIJ
-EMA
-ULINK
-US Emb
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Rank 10 : 1 Case</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-AAIS
-Dr. Sherly
-MedikaPlaza</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Rank, Referred By, Number of Referred Cases 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">1, AAIS, 7
 1, US Emb, 7
 3, AAIJ, 4
@@ -1444,9 +1303,19 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Rank, Referred By, Number of Referred Cases 
-</t>
+    <t xml:space="preserve">Clear all data (if any) in database and bootstrap ‘KPI Analysis’ file in the Iteration 8 bootstrap folder </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Month </t>
     </r>
     <r>
       <rPr>
@@ -1456,13 +1325,41 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">1, AAIJ, 9
-2, AAIS, 6
-3, Ulink Myanmar, 4
-4, Blue Dot, 3
-4, Dyah, 3
+      <t xml:space="preserve">
+Dec 2014 -  0 Indo Visa : 0 Non-Indo Visa
+                    / No result 
+Jan 2015 -  7 Indo Visa : 5 Non-Indo Visa
+Increase / Decrease - 
 </t>
     </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Compare with Previous Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Jan 2014  - 0 Indo Visa :   0 Non-Indo Visa       
+                  / No result
+Jan 2015 - 7 Indo Visa : 5 Non-Indo Visa
+Increase / Decrease - </t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1472,8 +1369,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-Rank 6 : 2 Cases</t>
+      <t>Rank, Doctor, Number of Appointment, Clinic, Specialty</t>
     </r>
     <r>
       <rPr>
@@ -1484,13 +1380,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Andreas
-EMA
-Mostafizur
-Priscilla Yu Miao
-ULINK
-US Emb
-Veron
+1, Dede Selamat Sutedja, 3, The Singapore Gastro Liver Internist Centre, Medicine - Gastroenterology
 </t>
     </r>
     <r>
@@ -1502,7 +1392,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Rank 13: 1 Case</t>
+      <t xml:space="preserve">Rank 2 Number of Appointment 1 : </t>
     </r>
     <r>
       <rPr>
@@ -1513,16 +1403,585 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Dr. Sherly
-IndoMed
-Melivon
-Mrs Tan
-Ninik
-SMG</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Clear all data (if any) in database and bootstrap ‘KPI Analysis’ file in the Iteration 8 bootstrap folder </t>
+Brian Lee Pheng Hui
+Chia Yee Tien
+Francis Wong Yoke Hae
+Harry Fok Wing Sang
+Hsieh Wen Son
+Kelvin Thia Teck Joo
+Lee Eu Jin
+Ng Tay Meng
+Ronald Brett
+Sam Peh Oon Hui
+Tan Khai Tong
+Timothy Lee Kam-Yiu
+Wong Poo Sing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ranking - Referral </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(true &amp; false for medical and visa)</t>
+    </r>
+  </si>
+  <si>
+    <t>Search Clients</t>
+  </si>
+  <si>
+    <t>Search "Ali" in the Client List search box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The table should display all clients that contains "Ali"  </t>
+  </si>
+  <si>
+    <t>0 - 10</t>
+  </si>
+  <si>
+    <t>11 - 20</t>
+  </si>
+  <si>
+    <t>21 - 30</t>
+  </si>
+  <si>
+    <t>31 - 40</t>
+  </si>
+  <si>
+    <t>41 - 50</t>
+  </si>
+  <si>
+    <t>51 - 60</t>
+  </si>
+  <si>
+    <t>61 - 70</t>
+  </si>
+  <si>
+    <t>71 - 80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80 and above </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Month </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Dec 2015 - 2 Indo Visa : 4 Non-Indo Visa
+Jan 2016 - 3 Indo Visa : 3 Non-Indo Visa
+Increase / Decrease :  50% Indo Visa : -25% non-indo visa
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Compare with Previous Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Jan 2015  - 7 Indo Visa :   5 Non-Indo Visa
+Jan 2016 - 3 Indo Visa : 3 Non-Indo Visa
+Increase / Decrease : -57% visa :  -40% non-visa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Month </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+May 2016 -  5 Indo Visa : 1 Non-Indo Visa
+June 2016 -  2 Indo Visa : 2 Non-Indo Visa
+Increase / Decrease : -60% indo : 100% non-indo
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Compare with Previous Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+June 2015  -  7 Indo Visa :  4  Non-Indo Visa
+June 2016 -  2 Indo Visa : 2 Non-Indo Visa
+Increase / Decrease : -72% : -50% </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Month </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Nov 2016 - 0 Indo Visa : 3 Non-Indo Visa
+Dec 2016 - 11 Indo Visa : 8 Non-Indo Visa
+Increase / Decrease  - : 167% non-indo 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Dec 2015  - 2 Indo Visa :  4 Non-Indo Visa
+Dec 2016 - 11 Indo Visa : 8 Non-Indo Visa
+Increase / Decrease: 450% : 100% </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Month </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Dec 2014 -  0 Inpatient :  0 Outpatient
+                    / No result 
+Jan 2015 -   10 Inpatient :  19 Outpatient
+Increase / Decrease : -   
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Compare with Previous Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Jan 2014  -  0 Inpatient :  0 Outpatient       
+                  / No result
+Jan 2015 -  10 Inpatient : 19  Outpatient
+Increase / Decrease : - </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Month </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Dec 2015 - 5 Inpatient : 27 Outpatient
+Jan 2016 -  7 Inpatient : 25 Outpatient
+Increase / Decrease 40%: -8%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Compare with Previous Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Jan 2015  - 10 Inpatient : 19  Outpatient
+Jan 2016 -  7 Inpatient : 25 Outpatient
+Increase / Decrease : -30% : 32% </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Month </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+May 2016 - 10 Inpatient : 26 Outpatient
+June 2016 - 5 Inpatient : 7 Outpatient
+Increase / Decrease : -50% : -73% 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+June 2015  - 11 Inpatient : 13 Outpatient
+June 2016 -  5 Inpatient : 7 Outpatient
+Increase / Decrease : -54% : -46% </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Compare with Previous Month</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Nov 2016 - 10 Inpatient : 14 Outpatient
+Dec 2016 - 8 Inpatient : 19 Outpatient
+Increase / Decrease  :   -20% :36% 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Dec 2015  -5 Inpatient : 27 Outpatient
+Dec 2016 - 8 Inpatient : 19 Outpatient
+Increase / Decrease - 60% : -30%</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number  3        :    3          :  32
+Gender% 50    :    50
+Overall%              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number     3     :      4        : 25
+Gender %  43   :   57    
+Overall%           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number   1      :        4      :       37
+Gender %  20  :  80    
+Overall%              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number   14  :  13 : 95 
+Gender % 52 : 48      
+Overall%             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number  11   : 8 : 97 
+Gender %  58 :   42  
+Overall%       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number   18       :     5         : 83 
+Gender %      78 : 22
+Overall%              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number   7  :   4   : 63
+Gender %     64 : 36  
+Overall%        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number   4      :     2          :      28 
+Gender %   67 : 33    
+Overall%           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number   0       :  2            : 5 
+Gender %   0 : 100   
+Overall%             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">569 Clients with Age without Gender </t>
+  </si>
+  <si>
+    <t xml:space="preserve">106 Clients with Age and Gender </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 Female with no bd, 1 male with no bd, 100 clients without bd and gender </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[NEED RECONFIRM] 668 Unique Clients </t>
+  </si>
+  <si>
+    <t>Current Iteration: 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinic missing. 
+Number of engagement is wrong. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fail </t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are more than 10 doctors shown.  Rank 1 has 9 engagement. </t>
+  </si>
+  <si>
+    <r>
+      <t>MTH
+Jan 2015: 28 inpatient, remaining 0
+YEAR
+all 0 (jan 2014 &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dec 2014)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Why dec 2014?</t>
+    </r>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTH
+Jan 2016: 32 inpatient
+Dec 2015: 32 inpatient 
+remaining 0 
+YEAR
+jan 2015: 28 inpatient 
+dec 2015: 32 inpatient
+remainging 0
+no % increase / decrease </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTH
+June 2016: 12 inpatient
+May 2016: 0 inpatient 
+remaining 0 
+YEAR
+june 2015: 24 inpatient 
+may 2015: 0 inpatient
+remainging 0
+no % increase / decrease </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTH
+dec 2016: 26 inpatient
+nov 2016: 24 inpatient 
+remaining 0 
+0% increase / decrease
+YEAR
+dec 2015: 32 inpatient 
+nov 2015: 30 inpatient
+remainging 0
+no % increase / decrease </t>
+  </si>
+  <si>
+    <t>Unable to click</t>
   </si>
   <si>
     <r>
@@ -1560,7 +2019,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Rank 5 - Number of Appointment 1 :</t>
+      <t>Rank 2 - Number of Appointment 1 :</t>
     </r>
     <r>
       <rPr>
@@ -1588,60 +2047,6 @@
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Month </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Dec 2014 -  0 Indo Visa : 0 Non-Indo Visa
-                    / No result 
-Jan 2015 -  7 Indo Visa : 5 Non-Indo Visa
-Increase / Decrease - 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Compare with Previous Year </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Jan 2014  - 0 Indo Visa :   0 Non-Indo Visa       
-                  / No result
-Jan 2015 - 7 Indo Visa : 5 Non-Indo Visa
-Increase / Decrease - </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -1674,7 +2079,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Rank 5 - Number of Appointment 1: </t>
+      <t xml:space="preserve">Rank 3 - Number of Appointment 1: </t>
     </r>
     <r>
       <rPr>
@@ -1707,6 +2112,25 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Rank, Specialty, Number of Engagement
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1, Surgery - Orthopaedics, 4
+2, Medicine - Gastroenterology, 3
+2, Surgery - ENT, 3
+3, Medicine - Endocrinology, 2
+3, Medicine - Oncology, 2
+3, Obs &amp; Gynae, 2</t>
+    </r>
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -1715,7 +2139,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Rank, Doctor, Number of Appointment, Clinic, Specialty</t>
+      <t xml:space="preserve">
+3, </t>
     </r>
     <r>
       <rPr>
@@ -1725,43 +2150,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-1, Dede Selamat Sutedja, 3, The Singapore Gastro Liver Internist Centre, Medicine - Gastroenterology
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Rank 2 Number of Appointment 1 : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Brian Lee Pheng Hui
-Chia Yee Tien
-Francis Wong Yoke Hae
-Harry Fok Wing Sang
-Hsieh Wen Son
-Kelvin Thia Teck Joo
-Lee Eu Jin
-Ng Tay Meng
-Ronald Brett
-Sam Peh Oon Hui
-Tan Khai Tong
-Timothy Lee Kam-Yiu
-Wong Poo Sing</t>
+      <t>Surgery - General, 2
+4, Medicine - Cardiology, 1
+4, Medicine - Renal, 1
+4, Surgery - Neuro, 1</t>
     </r>
   </si>
   <si>
@@ -1780,7 +2172,7 @@
       <t xml:space="preserve">, Medicine - Gastroenterology, 6
 2, Obs &amp; Gynae, 3
 2, Surgery - Orthopaedics, 3
-4, Dental, 2
+3, Dental, 2
 </t>
     </r>
     <r>
@@ -1792,7 +2184,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Rank 5:</t>
+      <t>Rank 4:</t>
     </r>
     <r>
       <rPr>
@@ -1816,66 +2208,31 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Ranking - Referral </t>
+      <t xml:space="preserve">Rank, Referred By, Number of Referred Cases 
+</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(true &amp; false for medical and visa)</t>
-    </r>
-  </si>
-  <si>
-    <t>Search Clients</t>
-  </si>
-  <si>
-    <t>Search "Ali" in the Client List search box</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The table should display all clients that contains "Ali"  </t>
-  </si>
-  <si>
-    <t>0 - 10</t>
-  </si>
-  <si>
-    <t>11 - 20</t>
-  </si>
-  <si>
-    <t>21 - 30</t>
-  </si>
-  <si>
-    <t>31 - 40</t>
-  </si>
-  <si>
-    <t>41 - 50</t>
-  </si>
-  <si>
-    <t>51 - 60</t>
-  </si>
-  <si>
-    <t>61 - 70</t>
-  </si>
-  <si>
-    <t>71 - 80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80 and above </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Compare with Previous Month </t>
+      <t xml:space="preserve">1. Melivon, 7
+2, Mostfizur, 4
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rank 3: 3 Cases</t>
     </r>
     <r>
       <rPr>
@@ -1886,22 +2243,22 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Dec 2015 - 2 Indo Visa : 4 Non-Indo Visa
-Jan 2016 - 3 Indo Visa : 3 Non-Indo Visa
-Increase / Decrease :  50% Indo Visa : -25% non-indo visa
+Andreas
+Ninik
+SMG 
 </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Compare with Previous Year </t>
+Rank 4: 2 Cases</t>
     </r>
     <r>
       <rPr>
@@ -1912,22 +2269,23 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Jan 2015  - 7 Indo Visa :   5 Non-Indo Visa
-Jan 2016 - 3 Indo Visa : 3 Non-Indo Visa
-Increase / Decrease : -57% visa :  -40% non-visa</t>
-    </r>
-  </si>
-  <si>
+AAIJ
+EMA
+ULINK
+US Emb
+</t>
+    </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Compare with Previous Month </t>
+      <t xml:space="preserve">
+Rank 5 : 1 Case</t>
     </r>
     <r>
       <rPr>
@@ -1938,22 +2296,42 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-May 2016 -  5 Indo Visa : 1 Non-Indo Visa
-June 2016 -  2 Indo Visa : 2 Non-Indo Visa
-Increase / Decrease : -60% indo : 100% non-indo
+AAIS
+Dr. Sherly
+MedikaPlaza</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rank, Referred By, Number of Referred Cases 
 </t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">1, AAIJ, 9
+2, AAIS, 6
+3, Ulink Myanmar, 4
+4, Blue Dot, 3
+4, Dyah, 3
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">
-Compare with Previous Year </t>
+Rank 5 : 2 Cases</t>
     </r>
     <r>
       <rPr>
@@ -1964,22 +2342,25 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-June 2015  -  7 Indo Visa :  4  Non-Indo Visa
-June 2016 -  2 Indo Visa : 2 Non-Indo Visa
-Increase / Decrease : -72% : -50% </t>
-    </r>
-  </si>
-  <si>
+Andreas
+EMA
+Mostafizur
+Priscilla Yu Miao
+ULINK
+US Emb
+Veron
+</t>
+    </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Compare with Previous Month </t>
+      <t>Rank 6: 1 Case</t>
     </r>
     <r>
       <rPr>
@@ -1990,397 +2371,16 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Nov 2016 - 0 Indo Visa : 3 Non-Indo Visa
-Dec 2016 - 11 Indo Visa : 8 Non-Indo Visa
-Increase / Decrease  - : 167% non-indo 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Year </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Dec 2015  - 2 Indo Visa :  4 Non-Indo Visa
-Dec 2016 - 11 Indo Visa : 8 Non-Indo Visa
-Increase / Decrease: 450% : 100% </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Month </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Dec 2014 -  0 Inpatient :  0 Outpatient
-                    / No result 
-Jan 2015 -   10 Inpatient :  19 Outpatient
-Increase / Decrease : -   
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Compare with Previous Year </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Jan 2014  -  0 Inpatient :  0 Outpatient       
-                  / No result
-Jan 2015 -  10 Inpatient : 19  Outpatient
-Increase / Decrease : - </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Month </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Dec 2015 - 5 Inpatient : 27 Outpatient
-Jan 2016 -  7 Inpatient : 25 Outpatient
-Increase / Decrease 40%: -8%
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Compare with Previous Year </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Jan 2015  - 10 Inpatient : 19  Outpatient
-Jan 2016 -  7 Inpatient : 25 Outpatient
-Increase / Decrease : -30% : 32% </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Month </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-May 2016 - 10 Inpatient : 26 Outpatient
-June 2016 - 5 Inpatient : 7 Outpatient
-Increase / Decrease : -50% : -73% 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Year </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-June 2015  - 11 Inpatient : 13 Outpatient
-June 2016 -  5 Inpatient : 7 Outpatient
-Increase / Decrease : -54% : -46% </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Compare with Previous Month</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-Nov 2016 - 10 Inpatient : 14 Outpatient
-Dec 2016 - 8 Inpatient : 19 Outpatient
-Increase / Decrease  :   -20% :36% 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Year </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Dec 2015  -5 Inpatient : 27 Outpatient
-Dec 2016 - 8 Inpatient : 19 Outpatient
-Increase / Decrease - 60% : -30%</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">                 Male : Female : Unknown
-Number  3        :    3          :  32
-Gender% 50    :    50
-Overall%              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 Male : Female : Unknown
-Number     3     :      4        : 25
-Gender %  43   :   57    
-Overall%           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 Male : Female : Unknown
-Number   1      :        4      :       37
-Gender %  20  :  80    
-Overall%              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 Male : Female : Unknown
-Number   14  :  13 : 95 
-Gender % 52 : 48      
-Overall%             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 Male : Female : Unknown
-Number  11   : 8 : 97 
-Gender %  58 :   42  
-Overall%       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 Male : Female : Unknown
-Number   18       :     5         : 83 
-Gender %      78 : 22
-Overall%              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 Male : Female : Unknown
-Number   7  :   4   : 63
-Gender %     64 : 36  
-Overall%        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 Male : Female : Unknown
-Number   4      :     2          :      28 
-Gender %   67 : 33    
-Overall%           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 Male : Female : Unknown
-Number   0       :  2            : 5 
-Gender %   0 : 100   
-Overall%             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">569 Clients with Age without Gender </t>
-  </si>
-  <si>
-    <t xml:space="preserve">106 Clients with Age and Gender </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 Female with no bd, 1 male with no bd, 100 clients without bd and gender </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[NEED RECONFIRM] 668 Unique Clients </t>
-  </si>
-  <si>
-    <t>Current Iteration: 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clinic missing. 
-Number of engagement is wrong. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fail </t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There are more than 10 doctors shown.  Rank 1 has 9 engagement. </t>
-  </si>
-  <si>
-    <t>Ranking, order of speciality different</t>
-  </si>
-  <si>
-    <r>
-      <t>MTH
-Jan 2015: 28 inpatient, remaining 0
-YEAR
-all 0 (jan 2014 &amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> dec 2014)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Why dec 2014?</t>
-    </r>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MTH
-Jan 2016: 32 inpatient
-Dec 2015: 32 inpatient 
-remaining 0 
-YEAR
-jan 2015: 28 inpatient 
-dec 2015: 32 inpatient
-remainging 0
-no % increase / decrease </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MTH
-June 2016: 12 inpatient
-May 2016: 0 inpatient 
-remaining 0 
-YEAR
-june 2015: 24 inpatient 
-may 2015: 0 inpatient
-remainging 0
-no % increase / decrease </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MTH
-dec 2016: 26 inpatient
-nov 2016: 24 inpatient 
-remaining 0 
-0% increase / decrease
-YEAR
-dec 2015: 32 inpatient 
-nov 2015: 30 inpatient
-remainging 0
-no % increase / decrease </t>
-  </si>
-  <si>
-    <t>Unable to click</t>
+Dr. Sherly
+IndoMed
+Melivon
+Mrs Tan
+Ninik
+SMG</t>
+    </r>
+  </si>
+  <si>
+    <t>Similar output, except not in alphabetical order</t>
   </si>
 </sst>
 </file>
@@ -3089,42 +3089,42 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3149,10 +3149,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -3160,10 +3160,10 @@
     <row r="9" spans="1:5" ht="62" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="23" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -3171,10 +3171,10 @@
     <row r="10" spans="1:5" ht="62" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
       <c r="B10" s="23" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -3182,10 +3182,10 @@
     <row r="11" spans="1:5" ht="62" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
       <c r="B11" s="23" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
@@ -3193,10 +3193,10 @@
     <row r="12" spans="1:5" ht="62" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
       <c r="B12" s="23" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
@@ -3204,10 +3204,10 @@
     <row r="13" spans="1:5" ht="62" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
       <c r="B13" s="23" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
@@ -3215,10 +3215,10 @@
     <row r="14" spans="1:5" ht="62" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
       <c r="B14" s="23" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
@@ -3226,10 +3226,10 @@
     <row r="15" spans="1:5" ht="62" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
       <c r="B15" s="23" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -3237,10 +3237,10 @@
     <row r="16" spans="1:5" ht="62" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
       <c r="B16" s="23" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
@@ -3255,8 +3255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="D11" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3280,7 +3280,7 @@
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="18"/>
@@ -3319,10 +3319,10 @@
         <v>238</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>6</v>
@@ -3339,10 +3339,10 @@
         <v>239</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>6</v>
@@ -3359,10 +3359,10 @@
         <v>240</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>6</v>
@@ -3379,13 +3379,13 @@
         <v>242</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>243</v>
+        <v>300</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="93" x14ac:dyDescent="0.35">
@@ -3393,19 +3393,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>246</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="247" x14ac:dyDescent="0.35">
@@ -3416,13 +3416,13 @@
         <v>241</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>259</v>
+        <v>301</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>6</v>
@@ -3433,19 +3433,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="291.5" x14ac:dyDescent="0.35">
@@ -3453,19 +3453,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>251</v>
+        <v>302</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="247" x14ac:dyDescent="0.35">
@@ -3473,19 +3473,19 @@
         <v>9</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>239</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="354.5" x14ac:dyDescent="0.35">
@@ -3493,16 +3493,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>240</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>253</v>
+        <v>303</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>6</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B2" s="13"/>
     </row>
@@ -3698,13 +3698,13 @@
         <v>228</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="139.5" x14ac:dyDescent="0.35">
@@ -3718,13 +3718,13 @@
         <v>229</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="139.5" x14ac:dyDescent="0.35">
@@ -3738,13 +3738,13 @@
         <v>230</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="139.5" x14ac:dyDescent="0.35">
@@ -3758,13 +3758,13 @@
         <v>231</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="170.5" x14ac:dyDescent="0.35">
@@ -3778,13 +3778,13 @@
         <v>233</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="232.5" x14ac:dyDescent="0.35">
@@ -3798,13 +3798,13 @@
         <v>234</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="232.5" x14ac:dyDescent="0.35">
@@ -3818,13 +3818,13 @@
         <v>235</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="263.5" x14ac:dyDescent="0.35">
@@ -3838,13 +3838,13 @@
         <v>236</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -4383,13 +4383,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E8" s="2"/>
     </row>
